--- a/Day8/Demo/wwwroot/uploads/Employee.xlsx
+++ b/Day8/Demo/wwwroot/uploads/Employee.xlsx
@@ -34,10 +34,22 @@
     <x:t>1990-01-01</x:t>
   </x:si>
   <x:si>
-    <x:t>Mary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1993-03-03</x:t>
+    <x:t>Peter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1992-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1990-05-06</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,7 +415,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:D5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -440,7 +452,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>50000</x:v>
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -454,7 +466,35 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>38000</x:v>
+        <x:v>40000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0">
+        <x:v>50000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="0">
+        <x:v>55000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
